--- a/Documentação/product_backlog.xlsx
+++ b/Documentação/product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\Pé na areia\Pe-na-Areia\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C964F92E-B88F-44FC-BC8E-F07A63F3A87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDACE3-ECF1-4475-8667-DB2C7670C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="230">
   <si>
     <t>Nomes:</t>
   </si>
@@ -568,9 +568,6 @@
     <t>Criar e configurar repositório do projeto</t>
   </si>
   <si>
-    <t>Criar um repositório exclusivo no GitHub para o projeto, configurá-lo e adicionar o README.</t>
-  </si>
-  <si>
     <t>Manter o GitHub atualizado</t>
   </si>
   <si>
@@ -580,48 +577,12 @@
     <t>Desenvolver o protótipo do site no figma para otimizar o processo de design.</t>
   </si>
   <si>
-    <t>Tela home</t>
-  </si>
-  <si>
     <t>Página com informações do tema, menu que terá botões para levar a outras páginas e um rodapé contendo informções para contato.</t>
   </si>
   <si>
-    <t>Tela cantores</t>
-  </si>
-  <si>
-    <t>Tem por objetivo mostrar uma lista de cantores e curiosidades sobre o cantor.</t>
-  </si>
-  <si>
-    <t>Tem por objetivo mostrar uma lista de grupos de pagode e curiosidades sobre eles.</t>
-  </si>
-  <si>
-    <t>Tela registrar</t>
-  </si>
-  <si>
-    <t>Tela grupos</t>
-  </si>
-  <si>
-    <t>Tela onde o usuário irá se cadastrar com nome, email e senha para poder participar de quizes e votações.</t>
-  </si>
-  <si>
-    <t>Tela entrar</t>
-  </si>
-  <si>
     <t>Onde o usuário poderá acessar o site com e-mail e senha.</t>
   </si>
   <si>
-    <t>É onde o usuário acessa após se logar, onde mostrará possíveis interações com outras telas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">É a tela em que o usuário irá escolher um cantor favorito e esse dado irá compor uma dashboard dinâmica que ficará nessa tela. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">É a tela em que o usuário irá escolher um grupo favorito e esse dado irá compor uma dashboard dinâmica que ficará nessa tela. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Será onde o usuário será testado em um quiz sobre cantores, bandas ou músicas, os usuários com melhor pontuação aparecerão em uma dashboard dinâmica. </t>
-  </si>
-  <si>
     <t>Ferramenta de gestão de projeto</t>
   </si>
   <si>
@@ -643,35 +604,152 @@
     <t>Criar as entidades, atributos e relacionamentos entre os dados para maior compreensão dos dados.</t>
   </si>
   <si>
-    <t>Será usado para manipulação de dados com comandos como insert, update e delete.</t>
-  </si>
-  <si>
     <t>Fazer o uso do banco de dados através da VM Linux</t>
   </si>
   <si>
     <t>Dar ao banco de dados maior segurança, flexibilidade, gerenciamento centralizado.</t>
   </si>
   <si>
-    <t>Tela Home/usuário</t>
-  </si>
-  <si>
-    <t>Tela Cantores/usuário</t>
-  </si>
-  <si>
-    <t>Tela Grupos/usuário</t>
-  </si>
-  <si>
-    <t>Tela Quiz</t>
-  </si>
-  <si>
     <t>Usar o Git para fazer o upload de todas as camadas do projeto no GitHub, mantendo-o atualizado e utilizando versionamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Requisito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 1</t>
+  </si>
+  <si>
+    <t>Página home</t>
+  </si>
+  <si>
+    <t>Página Home/usuário</t>
+  </si>
+  <si>
+    <t>Página Quiz</t>
+  </si>
+  <si>
+    <t>Página de cadastro</t>
+  </si>
+  <si>
+    <t>Página login</t>
+  </si>
+  <si>
+    <t>Página sobre mim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 3</t>
+  </si>
+  <si>
+    <t>RF - 4</t>
+  </si>
+  <si>
+    <t>Validação de cadastro</t>
+  </si>
+  <si>
+    <t>Irá verificar se os campos nome, e-mail, senha e  confirmação de senha foram cadastrados corretamente.</t>
+  </si>
+  <si>
+    <t>É onde o usuário irá se cadastrar com nome, email e senha para poder participar de quizes e votações.</t>
+  </si>
+  <si>
+    <t>Página com a apresentação do projeto, que destacará suas principais funcionalidades.</t>
+  </si>
+  <si>
+    <t>Ela mostra meus gostos e ligações pessoais ao projeto.</t>
+  </si>
+  <si>
+    <t>Irá verificar se os dados digitados estão compatíveis as informações cadastradas.</t>
+  </si>
+  <si>
+    <t>Página Cantores</t>
+  </si>
+  <si>
+    <t>Página Grupos</t>
+  </si>
+  <si>
+    <t>É onde o usuário acessa após se logar, onde mostrará possíveis interações com outras telas e curiosidades sobre cantores e grupos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a página em que o usuário irá escolher um cantor favorito por meio de um card e esse dado irá compor uma dashboard dinâmica que ficará nessa página. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a página em que o usuário irá escolher um grupo favorito e esse dado irá compor uma dashboard dinâmica que ficará nessa página. </t>
+  </si>
+  <si>
+    <t>Fazê-lo conforme defino na modelagem do projeto, obedecendo suas entidades e relacionamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiente onde o usuário será testado em um quiz sobre cantores, bandas ou músicas, os usuários com melhor pontuação aparecerão em uma dashboard dinâmica. </t>
+  </si>
+  <si>
+    <t>Uso da API Data-Viz</t>
+  </si>
+  <si>
+    <t>Fazer a implementação da API que fará consultas e inserções dos dados do sistema.</t>
+  </si>
+  <si>
+    <t>Criar um repositório exclusivo no GitHub e configurá-lo para receber todas as documentações e códigos do projeto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNF - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF - 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNF - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNF - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNF - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNF - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNF - 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,8 +771,22 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +814,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,9 +914,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,6 +932,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,50 +1206,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27931F60-EC3F-4346-8AA0-E565DA7AA355}">
-  <dimension ref="C1:K37"/>
+  <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
     <col min="3" max="3" width="22.19921875" customWidth="1"/>
-    <col min="4" max="4" width="44.19921875" customWidth="1"/>
+    <col min="4" max="4" width="60.8984375" customWidth="1"/>
     <col min="5" max="5" width="14.296875" customWidth="1"/>
     <col min="6" max="6" width="12.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11">
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="3" spans="3:11" ht="26.4" customHeight="1"/>
-    <row r="5" spans="3:11">
-      <c r="C5" s="15" t="s">
+    <row r="1" spans="2:11">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="3" spans="2:11" ht="26.4" customHeight="1"/>
+    <row r="5" spans="2:11">
+      <c r="B5" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -1159,12 +1272,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="52.2" customHeight="1">
+    <row r="7" spans="2:11" ht="52.2" customHeight="1">
+      <c r="B7" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -1179,12 +1295,15 @@
         <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="41.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>203</v>
@@ -1202,15 +1321,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" ht="41.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="27.6">
+      <c r="B9" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -1225,38 +1347,36 @@
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" ht="27.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="27.6">
+      <c r="B10" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" ht="27.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="27.6">
+      <c r="B11" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -1271,38 +1391,36 @@
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" ht="27.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="27.6">
+      <c r="B12" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="27.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="27.6">
+      <c r="B13" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -1317,15 +1435,18 @@
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="41.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="41.4">
+      <c r="B14" s="20" t="s">
+        <v>219</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -1340,15 +1461,18 @@
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" ht="41.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="27.6">
+      <c r="B15" s="20" t="s">
+        <v>220</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1363,18 +1487,21 @@
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" ht="27.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="41.4">
+      <c r="B16" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>17</v>
@@ -1386,15 +1513,18 @@
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="27.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="27.6">
+      <c r="B17" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
@@ -1411,13 +1541,17 @@
       <c r="I17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" ht="41.4">
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="2:12" ht="41.4">
+      <c r="B18" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -1435,35 +1569,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="27.6">
+    <row r="19" spans="2:12" ht="27.6">
+      <c r="B19" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="27.6">
+        <v>213</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" ht="27.6">
+      <c r="B20" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -1481,12 +1611,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="41.4">
+    <row r="21" spans="2:12" ht="27.6">
+      <c r="B21" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
@@ -1504,12 +1637,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="41.4">
+    <row r="22" spans="2:12" ht="27.6">
+      <c r="B22" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -1527,15 +1663,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="55.2">
+    <row r="23" spans="2:12" ht="27.6">
+      <c r="B23" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
@@ -1550,60 +1689,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="41.4">
-      <c r="C32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="24" spans="2:12" ht="27.6">
+      <c r="B24" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="27.6">
+      <c r="B25" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" ht="41.4">
-      <c r="C33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="41.4">
-      <c r="C34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="41.4">
-      <c r="C35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="41.4">
+      <c r="D25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="27.6">
       <c r="C36" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" ht="41.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="27.6">
       <c r="C37" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="27.6">
+      <c r="C38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="27.6">
+      <c r="C39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="27.6">
+      <c r="C40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="27.6">
+      <c r="C41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1633,15 +1825,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="K1" t="s">
         <v>0</v>
       </c>
